--- a/output/Total_time_range_data/四川省/资阳市_学习考察.xlsx
+++ b/output/Total_time_range_data/四川省/资阳市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,94 +436,105 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>四川省</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>资阳市</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>湖南永州市人大常委会考察组来资学习考察地方立法工作</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.ziyang.gov.cn/details.aspx?id=200948</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['4月11日至12日，湖南省永州市人大常委会考察组到我市学习考察地方立法工作。市人大常委会副主任姜鸿飞陪同。', '考察组一行先后来到中国牙谷科创园、临空经济区产业孵化中心、四川音乐学院临空经济区校区（美术学院）、陈毅故里、圆觉洞及毗卢洞等地，深入了解学院建设和产教融合发展、文物保护利用和立法等工作情况。', '考察组认为资阳历史文化底蕴深厚、区位交通优势独特、优势产业特色鲜明，具有广阔的发展前景；我市文物保护工作取得的成绩值得肯定，将学习借鉴我市在地方立法特别是文物保护立法等方面的先进经验和做法，加快推进当地摩崖石刻保护规定的立法工作。姜鸿飞表示，希望今后两市人大常委会进一步加强沟通联系，相互学习借鉴，共同促进人大工作创新发展。 （全媒体记者 陈维 吴孝明）']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>244</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>四川省</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>资阳市</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>眉山市人大常委会考察组到我市学习考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2021-10-26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.ziyang.gov.cn/details.aspx?id=186479</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['10月25日，眉山市人大常委会主任刘十庆率考察组到我市，围绕中国牙谷建设、资阳临空经济区建设以及退役军人服务保障体系建设等情况进行考察。市人大常委会主任王荣木陪同。', '在资阳高新区，眉山市人大常委会考察组一行参观了中国牙谷科创中心，详细了解资阳高新区的区位优势、发展规划、发展目标、总体布局以及中国牙谷建设发展等情况，对资阳围绕培育创造口腔民族品牌发展目标，着力建设“产学研销医养”全链口腔基地，打造中国一流、世界知名“中国牙谷”充满期待，并对我市抢抓机遇、顺势而为，争取到省委、省政府将口腔装备材料产业布局资阳高新区的举措表示充分认同。在资阳临空经济区，看现场、听情况介绍、看规划展示厅，考察组一行对这里热火朝天的建设情景给予赞赏。他们表示，资阳市委、市政府将临空经济区作为资阳高质量发展的重要增长极和动力源、成资同城化发展的重要支撑和融入成渝地区双城经济圈建设的示范区，并举全市之力加快推进建设，令人鼓舞。期待资阳临空经济区这个“天府之翼、空港新城”早日建成。', '考察组一行还参观了雁江区宝莲街道拱城社区退役军人服务站，深入了解该站立足以纯商业小区为主的实际，坚持“开放、包容、自治、共享”理念，积极引导退役军人参与打造城市社区基层治理“四化四新”的情况。']</t>
         </is>
